--- a/FinalProject/Task3.2_openMP_timings.xlsx
+++ b/FinalProject/Task3.2_openMP_timings.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannes/Desktop/FinalProjectRepo/FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C51E19C-6A0F-B641-8F14-F3049EE549AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1803D5-776A-6D4F-87A6-2ABF74ADC7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2340" windowWidth="27640" windowHeight="16860" xr2:uid="{1F635A9F-FB38-D44E-B17D-7F7F80DFA079}"/>
+    <workbookView xWindow="3480" yWindow="960" windowWidth="27640" windowHeight="16860" xr2:uid="{1F635A9F-FB38-D44E-B17D-7F7F80DFA079}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Time 1</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Average Time</t>
   </si>
   <si>
-    <t>Task 2: OpenMP Timings for coarse mesh</t>
-  </si>
-  <si>
     <t>Number of Threads</t>
   </si>
   <si>
@@ -71,6 +68,63 @@
   </si>
   <si>
     <t>4 OpenMP B</t>
+  </si>
+  <si>
+    <t>Task 2A: OpenMP Timings for coarse mesh (first loop: dynamic, 512, second loop schedule static)</t>
+  </si>
+  <si>
+    <t>option and chucksize</t>
+  </si>
+  <si>
+    <t>static, 512</t>
+  </si>
+  <si>
+    <t>static, 128</t>
+  </si>
+  <si>
+    <t>static, 256</t>
+  </si>
+  <si>
+    <t>dynamic, 128</t>
+  </si>
+  <si>
+    <t>dynamic, 256</t>
+  </si>
+  <si>
+    <t>dynamic, 512</t>
+  </si>
+  <si>
+    <t>guided, 128</t>
+  </si>
+  <si>
+    <t>guided, 256</t>
+  </si>
+  <si>
+    <t>guided, 512</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>Task 2B: Scheduling Options + chunck sizes (second loop remains schedule static), 4 threads</t>
+  </si>
+  <si>
+    <t>Task 2C: Best scheduling &amp; chuncksize option on different number of threads</t>
+  </si>
+  <si>
+    <t>Number of threads</t>
+  </si>
+  <si>
+    <t>coarse</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t> 154,83260</t>
   </si>
 </sst>
 </file>
@@ -80,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,6 +156,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,11 +185,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -445,27 +508,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7581305-5D4C-6647-B010-6017CE0E23CA}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -482,7 +547,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>8.1489200000000004</v>
@@ -500,25 +565,25 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>1.1180600000000001</v>
+        <v>1.4037200000000001</v>
       </c>
       <c r="C4">
-        <v>1.22411</v>
+        <v>1.30203</v>
       </c>
       <c r="D4">
-        <v>1.3124400000000001</v>
+        <v>1.2875799999999999</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4:E8" si="0">AVERAGE(B4,C4,D4)</f>
-        <v>1.2182033333333335</v>
+        <v>1.33111</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>72.38</v>
@@ -536,25 +601,25 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>1.0628200000000001</v>
+        <v>1.22617</v>
       </c>
       <c r="C6">
-        <v>1.3881300000000001</v>
+        <v>1.2888200000000001</v>
       </c>
       <c r="D6">
-        <v>1.0936900000000001</v>
+        <v>1.2707299999999999</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>1.1815466666666667</v>
+        <v>1.2619066666666667</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>137.83000000000001</v>
@@ -572,20 +637,620 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>0.8599</v>
+        <v>1.10877</v>
       </c>
       <c r="C8">
-        <v>0.18725</v>
+        <v>1.1193200000000001</v>
       </c>
       <c r="D8">
-        <v>0.20619000000000001</v>
+        <v>1.1463300000000001</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>0.41778000000000004</v>
+        <v>1.1248066666666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>185.06335999999999</v>
+      </c>
+      <c r="C13" s="4">
+        <v>182.40415999999999</v>
+      </c>
+      <c r="D13">
+        <v>186.94891000000001</v>
+      </c>
+      <c r="E13" s="3">
+        <f>AVERAGE(B13,C13,D13)</f>
+        <v>184.80547666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4">
+        <v>192.78475</v>
+      </c>
+      <c r="C14">
+        <v>185.80392000000001</v>
+      </c>
+      <c r="D14">
+        <v>173.59774999999999</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" ref="E14:E22" si="1">AVERAGE(B14,C14,D14)</f>
+        <v>184.06214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>184.62162000000001</v>
+      </c>
+      <c r="C15">
+        <v>185.93863999999999</v>
+      </c>
+      <c r="D15">
+        <v>195.19511</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>188.58512333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>241.42249000000001</v>
+      </c>
+      <c r="C16">
+        <v>246.61052000000001</v>
+      </c>
+      <c r="D16">
+        <v>236.55399</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="1"/>
+        <v>241.529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>231.34885</v>
+      </c>
+      <c r="C17">
+        <v>236.34844000000001</v>
+      </c>
+      <c r="D17">
+        <v>245.47020000000001</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
+        <v>237.72249666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>237.39605</v>
+      </c>
+      <c r="C18">
+        <v>228.07514</v>
+      </c>
+      <c r="D18">
+        <v>233.37314000000001</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="1"/>
+        <v>232.94811000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>224.15145999999999</v>
+      </c>
+      <c r="C19">
+        <v>219.59822</v>
+      </c>
+      <c r="D19">
+        <v>224.81417999999999</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
+        <v>222.85461999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>230.82767000000001</v>
+      </c>
+      <c r="C20">
+        <v>218.39873</v>
+      </c>
+      <c r="D20">
+        <v>228.94242</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
+        <v>226.05627333333334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2">
+        <v>216.50783000000001</v>
+      </c>
+      <c r="C21">
+        <v>214.13534000000001</v>
+      </c>
+      <c r="D21">
+        <v>218.14508000000001</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
+        <v>216.26275000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>215.53663</v>
+      </c>
+      <c r="C22">
+        <v>233.77347</v>
+      </c>
+      <c r="D22">
+        <v>213.59698</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="1"/>
+        <v>220.96902666666668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1.30684</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1.2417899999999999</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1.2884599999999999</v>
+      </c>
+      <c r="E28" s="3">
+        <f>AVERAGE(B28,C28,D28)</f>
+        <v>1.2790299999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1.4330400000000001</v>
+      </c>
+      <c r="C29">
+        <v>1.5120199999999999</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1.6302300000000001</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" ref="E29:E33" si="2">AVERAGE(B29,C29,D29)</f>
+        <v>1.5250966666666665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1.1842200000000001</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1.07168</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1.26715</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="2"/>
+        <v>1.17435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1.1871799999999999</v>
+      </c>
+      <c r="C31">
+        <v>1.14537</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1.19051</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1743533333333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1.2194799999999999</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1.1795</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1.13683</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1786033333333332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1.1593199999999999</v>
+      </c>
+      <c r="C33">
+        <v>1.12042</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1.20255</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1607633333333334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" s="6">
+        <v>63.637450000000001</v>
+      </c>
+      <c r="C37" s="4">
+        <v>62.788710000000002</v>
+      </c>
+      <c r="D37">
+        <v>67.865949999999998</v>
+      </c>
+      <c r="E37" s="3">
+        <f>AVERAGE(B37,C37,D37)</f>
+        <v>64.764036666666669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" s="6">
+        <v>39.643369999999997</v>
+      </c>
+      <c r="C38">
+        <v>50.205710000000003</v>
+      </c>
+      <c r="D38">
+        <v>38.59778</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" ref="E38:E42" si="3">AVERAGE(B38,C38,D38)</f>
+        <v>42.815620000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2">
+        <v>34.046050000000001</v>
+      </c>
+      <c r="C39">
+        <v>34.609650000000002</v>
+      </c>
+      <c r="D39" s="6">
+        <v>32.491729999999997</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="3"/>
+        <v>33.715809999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40" s="6">
+        <v>29.350729999999999</v>
+      </c>
+      <c r="C40">
+        <v>28.178280000000001</v>
+      </c>
+      <c r="D40">
+        <v>30.671399999999998</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="3"/>
+        <v>29.400136666666668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2">
+        <v>27.163599999999999</v>
+      </c>
+      <c r="C41">
+        <v>24.596050000000002</v>
+      </c>
+      <c r="D41">
+        <v>25.038550000000001</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="3"/>
+        <v>25.599400000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>12</v>
+      </c>
+      <c r="B42" s="6">
+        <v>22.550830000000001</v>
+      </c>
+      <c r="C42" s="6">
+        <v>22.954529999999998</v>
+      </c>
+      <c r="D42" s="6">
+        <v>22.027529999999999</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="3"/>
+        <v>22.510963333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" s="6">
+        <v>752.37275</v>
+      </c>
+      <c r="C46" s="4">
+        <v>704.20780999999999</v>
+      </c>
+      <c r="D46">
+        <v>719.11923999999999</v>
+      </c>
+      <c r="E46" s="3">
+        <f>AVERAGE(B46,C46,D46)</f>
+        <v>725.23326666666662</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" s="6">
+        <v>348.64981999999998</v>
+      </c>
+      <c r="C47" s="6">
+        <v>300.38251000000002</v>
+      </c>
+      <c r="D47" s="6">
+        <v>309.74529000000001</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" ref="E47:E51" si="4">AVERAGE(B47,C47,D47)</f>
+        <v>319.59254000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2">
+        <v>185.62814</v>
+      </c>
+      <c r="C48">
+        <v>183.77653000000001</v>
+      </c>
+      <c r="D48">
+        <v>189.48845</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="4"/>
+        <v>186.29770666666664</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" s="2">
+        <v>154.26609999999999</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="6">
+        <v>155.69404</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="4"/>
+        <v>154.98007000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50" s="6">
+        <v>132.73307</v>
+      </c>
+      <c r="C50">
+        <v>130.79882000000001</v>
+      </c>
+      <c r="D50" s="6">
+        <v>137.49020999999999</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="4"/>
+        <v>133.67403333333331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>12</v>
+      </c>
+      <c r="B51" s="6">
+        <v>116.25342999999999</v>
+      </c>
+      <c r="C51" s="6">
+        <v>126.64367</v>
+      </c>
+      <c r="D51" s="6">
+        <v>115.93432</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="4"/>
+        <v>119.61047333333333</v>
       </c>
     </row>
   </sheetData>

--- a/FinalProject/Task3.2_openMP_timings.xlsx
+++ b/FinalProject/Task3.2_openMP_timings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannes/Desktop/FinalProjectRepo/FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1803D5-776A-6D4F-87A6-2ABF74ADC7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A60782E-BB29-604E-A386-F84BF6B939F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="960" windowWidth="27640" windowHeight="16860" xr2:uid="{1F635A9F-FB38-D44E-B17D-7F7F80DFA079}"/>
+    <workbookView xWindow="41880" yWindow="960" windowWidth="27640" windowHeight="16860" xr2:uid="{1F635A9F-FB38-D44E-B17D-7F7F80DFA079}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>Time 1</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t> 154,83260</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>old times -&gt; updated with runtimes of default chunk size for static scheduling</t>
   </si>
 </sst>
 </file>
@@ -508,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7581305-5D4C-6647-B010-6017CE0E23CA}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,14 +527,15 @@
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -545,120 +552,120 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>8.1489200000000004</v>
-      </c>
-      <c r="C3">
-        <v>7.9932100000000004</v>
-      </c>
-      <c r="D3">
-        <v>8.0277399999999997</v>
+      <c r="B3" s="6">
+        <v>9.0431899999999992</v>
+      </c>
+      <c r="C3" s="6">
+        <v>8.0211199999999998</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7.9648399999999997</v>
       </c>
       <c r="E3" s="3">
         <f>AVERAGE(B3,C3,D3)</f>
-        <v>8.0566233333333344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8.3430499999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>1.4037200000000001</v>
-      </c>
-      <c r="C4">
-        <v>1.30203</v>
-      </c>
-      <c r="D4">
-        <v>1.2875799999999999</v>
+        <v>1.29555</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.2772600000000001</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.2298</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4:E8" si="0">AVERAGE(B4,C4,D4)</f>
-        <v>1.33111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.2675366666666668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
-        <v>72.38</v>
-      </c>
-      <c r="C5">
-        <v>47.47222</v>
+      <c r="B5" s="6">
+        <v>66.964690000000004</v>
+      </c>
+      <c r="C5" s="6">
+        <v>61.182519999999997</v>
       </c>
       <c r="D5">
-        <v>70.341809999999995</v>
+        <v>76.817530000000005</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>63.398009999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68.321579999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
-        <v>1.22617</v>
-      </c>
-      <c r="C6">
-        <v>1.2888200000000001</v>
-      </c>
-      <c r="D6">
-        <v>1.2707299999999999</v>
+      <c r="B6" s="6">
+        <v>1.32745</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.3930499999999999</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1.3196399999999999</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>1.2619066666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.3467133333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
-        <v>137.83000000000001</v>
-      </c>
-      <c r="C7">
-        <v>143.39478</v>
+      <c r="B7" s="6">
+        <v>142.13991999999999</v>
+      </c>
+      <c r="C7" s="6">
+        <v>141.21176</v>
       </c>
       <c r="D7">
-        <v>141.04714999999999</v>
+        <v>144.41712999999999</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>140.75730999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>142.58960333333332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>1.10877</v>
-      </c>
-      <c r="C8">
-        <v>1.1193200000000001</v>
-      </c>
-      <c r="D8">
-        <v>1.1463300000000001</v>
+        <v>0.62051000000000001</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.3394200000000001</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1.0779099999999999</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>1.1248066666666665</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.0126133333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -675,7 +682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -692,8 +699,24 @@
         <f>AVERAGE(B13,C13,D13)</f>
         <v>184.80547666666666</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="2">
+        <v>188.96494000000001</v>
+      </c>
+      <c r="J13" s="4">
+        <v>192.36774</v>
+      </c>
+      <c r="K13">
+        <v>191.17967999999999</v>
+      </c>
+      <c r="L13" s="3">
+        <f>AVERAGE(I13,J13,K13)</f>
+        <v>190.83745333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -710,8 +733,24 @@
         <f t="shared" ref="E14:E22" si="1">AVERAGE(B14,C14,D14)</f>
         <v>184.06214</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="4">
+        <v>185.75989999999999</v>
+      </c>
+      <c r="J14">
+        <v>185.95672999999999</v>
+      </c>
+      <c r="K14">
+        <v>182.76705999999999</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" ref="L14:L16" si="2">AVERAGE(I14,J14,K14)</f>
+        <v>184.82789666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -728,8 +767,24 @@
         <f t="shared" si="1"/>
         <v>188.58512333333331</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="2">
+        <v>180.24538999999999</v>
+      </c>
+      <c r="J15">
+        <v>192.27624</v>
+      </c>
+      <c r="K15">
+        <v>180.93267</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="2"/>
+        <v>184.48476666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -746,6 +801,22 @@
         <f t="shared" si="1"/>
         <v>241.529</v>
       </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="4">
+        <v>181.18976000000001</v>
+      </c>
+      <c r="J16">
+        <v>173.63431</v>
+      </c>
+      <c r="K16">
+        <v>176.80009000000001</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="2"/>
+        <v>177.20805333333337</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -859,6 +930,9 @@
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -914,7 +988,7 @@
         <v>1.6302300000000001</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" ref="E29:E33" si="2">AVERAGE(B29,C29,D29)</f>
+        <f t="shared" ref="E29:E33" si="3">AVERAGE(B29,C29,D29)</f>
         <v>1.5250966666666665</v>
       </c>
     </row>
@@ -932,7 +1006,7 @@
         <v>1.26715</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.17435</v>
       </c>
     </row>
@@ -950,7 +1024,7 @@
         <v>1.19051</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1743533333333334</v>
       </c>
     </row>
@@ -968,7 +1042,7 @@
         <v>1.13683</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1786033333333332</v>
       </c>
     </row>
@@ -986,7 +1060,7 @@
         <v>1.20255</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1607633333333334</v>
       </c>
     </row>
@@ -1047,7 +1121,7 @@
         <v>38.59778</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" ref="E38:E42" si="3">AVERAGE(B38,C38,D38)</f>
+        <f t="shared" ref="E38:E42" si="4">AVERAGE(B38,C38,D38)</f>
         <v>42.815620000000003</v>
       </c>
     </row>
@@ -1065,7 +1139,7 @@
         <v>32.491729999999997</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33.715809999999998</v>
       </c>
     </row>
@@ -1083,7 +1157,7 @@
         <v>30.671399999999998</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29.400136666666668</v>
       </c>
     </row>
@@ -1101,7 +1175,7 @@
         <v>25.038550000000001</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25.599400000000003</v>
       </c>
     </row>
@@ -1119,7 +1193,7 @@
         <v>22.027529999999999</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.510963333333333</v>
       </c>
     </row>
@@ -1177,7 +1251,7 @@
         <v>309.74529000000001</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" ref="E47:E51" si="4">AVERAGE(B47,C47,D47)</f>
+        <f t="shared" ref="E47:E51" si="5">AVERAGE(B47,C47,D47)</f>
         <v>319.59254000000004</v>
       </c>
     </row>
@@ -1195,7 +1269,7 @@
         <v>189.48845</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>186.29770666666664</v>
       </c>
     </row>
@@ -1213,7 +1287,7 @@
         <v>155.69404</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>154.98007000000001</v>
       </c>
     </row>
@@ -1231,7 +1305,7 @@
         <v>137.49020999999999</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>133.67403333333331</v>
       </c>
     </row>
@@ -1249,7 +1323,7 @@
         <v>115.93432</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>119.61047333333333</v>
       </c>
     </row>
